--- a/SetStudentStandard/Template/已有修課及格補考標準樣板.xlsx
+++ b/SetStudentStandard/Template/已有修課及格補考標準樣板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\高中產生及格補考標準開發\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\SHDataParse\SetStudentStandard\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4A78E5-3A7E-4063-95ED-47AC3FDC32E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE4C9A4-60C4-4B87-8EED-D330EDAE5BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{15E06BEC-53E7-4B99-A0C1-67AEA3A6059F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21585" windowHeight="11295" xr2:uid="{15E06BEC-53E7-4B99-A0C1-67AEA3A6059F}"/>
   </bookViews>
   <sheets>
     <sheet name="已有修課及格補考標準" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>學生系統編號</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>補考標準</t>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -461,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBF30AF-1DB4-4DE3-9D80-5D0B3C353549}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -479,7 +483,7 @@
     <col min="12" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,6 +522,9 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
